--- a/res/schedule.xlsx
+++ b/res/schedule.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jurgenwilbert/Dropbox/08-R-Misc/course_dataanalyses_with_R/presentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juergen\Documents\GitHub\course_dataanalyzes_with_r\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEB5CC3-E1E1-4444-92A7-49655C87A6E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="12480" windowHeight="17040" xr2:uid="{FDD60D0C-8C6E-7446-8B82-D783916AE106}"/>
+    <workbookView xWindow="384" yWindow="456" windowWidth="12480" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Installation R and R Studio</t>
-  </si>
-  <si>
-    <t>Basics of R, part 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Regression analyses with R</t>
   </si>
@@ -39,40 +32,34 @@
     <t>Basic statistics</t>
   </si>
   <si>
-    <t>Basics of R, part 2</t>
-  </si>
-  <si>
-    <t>Data visualizazion with ggplot2, part 1</t>
-  </si>
-  <si>
-    <t>Data visualizazion with ggplot2, part 2</t>
-  </si>
-  <si>
-    <t>Markdown part 1</t>
-  </si>
-  <si>
-    <t>Markdown part 2</t>
-  </si>
-  <si>
-    <t>Data manipulation with tidyverse part 1</t>
-  </si>
-  <si>
-    <t>Data manipulation with tidyverse part 2</t>
-  </si>
-  <si>
-    <t>Multilevel Regressions</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Installation R, R Studio, and other software</t>
+  </si>
+  <si>
+    <t>Basics of R: Logic and syntax</t>
+  </si>
+  <si>
+    <t>Basics of R: Subsetting</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>Data manipulation with tidyverse</t>
+  </si>
+  <si>
+    <t>Data visualizazion with ggplot2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,51 +404,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108FCB6A-4BCC-4C4B-8040-937EE96496A3}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -469,7 +456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,60 +464,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
